--- a/Code/Results/Cases/Case_4_175/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_175/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9515537801175071</v>
+        <v>0.3714395591177038</v>
       </c>
       <c r="C2">
-        <v>0.1696278466461649</v>
+        <v>0.05579912950918242</v>
       </c>
       <c r="D2">
-        <v>0.5556100221693896</v>
+        <v>0.6523238794029282</v>
       </c>
       <c r="E2">
-        <v>0.248233641025621</v>
+        <v>0.2662843189305661</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4017376137117665</v>
+        <v>0.7169600431790144</v>
       </c>
       <c r="H2">
-        <v>0.3341553983922694</v>
+        <v>0.8196469962007171</v>
       </c>
       <c r="I2">
-        <v>0.2728041281414555</v>
+        <v>0.6284241979578198</v>
       </c>
       <c r="J2">
-        <v>0.1471928935876718</v>
+        <v>0.1387787624293466</v>
       </c>
       <c r="K2">
-        <v>1.067288679129888</v>
+        <v>0.3991581964930049</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7262941172013235</v>
+        <v>1.490711683824989</v>
       </c>
       <c r="O2">
-        <v>1.499299367086735</v>
+        <v>3.075950561197459</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8272240420708385</v>
+        <v>0.3347798175139474</v>
       </c>
       <c r="C3">
-        <v>0.1477448701360231</v>
+        <v>0.04928632770985075</v>
       </c>
       <c r="D3">
-        <v>0.5010385168126277</v>
+        <v>0.6416451284709694</v>
       </c>
       <c r="E3">
-        <v>0.222600049876803</v>
+        <v>0.2610608681683928</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3871010469245988</v>
+        <v>0.7189266023718304</v>
       </c>
       <c r="H3">
-        <v>0.3330841917653871</v>
+        <v>0.8243504706904758</v>
       </c>
       <c r="I3">
-        <v>0.2750499848734123</v>
+        <v>0.6335247926551446</v>
       </c>
       <c r="J3">
-        <v>0.1310484574743285</v>
+        <v>0.1353281451824415</v>
       </c>
       <c r="K3">
-        <v>0.9280072639533614</v>
+        <v>0.35797459018994</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7607896059719241</v>
+        <v>1.505711265271</v>
       </c>
       <c r="O3">
-        <v>1.465660860578069</v>
+        <v>3.089697132661342</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7509809080174534</v>
+        <v>0.3123118185157239</v>
       </c>
       <c r="C4">
-        <v>0.1343257218874498</v>
+        <v>0.04528376544608648</v>
       </c>
       <c r="D4">
-        <v>0.4681263656166266</v>
+        <v>0.6354147157113914</v>
       </c>
       <c r="E4">
-        <v>0.207132885144425</v>
+        <v>0.2579929372904743</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.37896007713438</v>
+        <v>0.7205566758285613</v>
       </c>
       <c r="H4">
-        <v>0.3329526041729522</v>
+        <v>0.8275635345104391</v>
       </c>
       <c r="I4">
-        <v>0.2769850304737069</v>
+        <v>0.636962074204888</v>
       </c>
       <c r="J4">
-        <v>0.1213014238087524</v>
+        <v>0.1332862474594307</v>
       </c>
       <c r="K4">
-        <v>0.8425924136327865</v>
+        <v>0.332716901195738</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.782902690076785</v>
+        <v>1.51540467414606</v>
       </c>
       <c r="O4">
-        <v>1.447891887311499</v>
+        <v>3.099704559935248</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7199261094822873</v>
+        <v>0.3031668799846727</v>
       </c>
       <c r="C5">
-        <v>0.1288595637454648</v>
+        <v>0.04365183978664788</v>
       </c>
       <c r="D5">
-        <v>0.4548537827277812</v>
+        <v>0.6329580189775186</v>
       </c>
       <c r="E5">
-        <v>0.2008932518336479</v>
+        <v>0.2567778139994559</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3758447766194166</v>
+        <v>0.7213271885480381</v>
       </c>
       <c r="H5">
-        <v>0.3330266496124352</v>
+        <v>0.8289547102847337</v>
       </c>
       <c r="I5">
-        <v>0.2779081945825261</v>
+        <v>0.6384396201625826</v>
       </c>
       <c r="J5">
-        <v>0.1173677488788272</v>
+        <v>0.1324734857647272</v>
       </c>
       <c r="K5">
-        <v>0.8078005897192782</v>
+        <v>0.3224321486333395</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7921431125229024</v>
+        <v>1.519476445031003</v>
       </c>
       <c r="O5">
-        <v>1.441344401535304</v>
+        <v>3.104176800790768</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7147701244819586</v>
+        <v>0.3016490487148076</v>
       </c>
       <c r="C6">
-        <v>0.1279519910169711</v>
+        <v>0.04338081071000488</v>
       </c>
       <c r="D6">
-        <v>0.45265800944847</v>
+        <v>0.6325550590378555</v>
       </c>
       <c r="E6">
-        <v>0.1998608500949146</v>
+        <v>0.2565781643691167</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3753393983114748</v>
+        <v>0.7214615478962116</v>
       </c>
       <c r="H6">
-        <v>0.3330465243011247</v>
+        <v>0.8291906582527275</v>
       </c>
       <c r="I6">
-        <v>0.2780694677762838</v>
+        <v>0.6386896058291107</v>
       </c>
       <c r="J6">
-        <v>0.1167167848071387</v>
+        <v>0.1323396951960092</v>
       </c>
       <c r="K6">
-        <v>0.8020240595130872</v>
+        <v>0.3207248722315228</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7936911659003698</v>
+        <v>1.520159906197057</v>
       </c>
       <c r="O6">
-        <v>1.440298175735393</v>
+        <v>3.104943220736715</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7505620436160427</v>
+        <v>0.3121884415497789</v>
       </c>
       <c r="C7">
-        <v>0.1342519968560936</v>
+        <v>0.04526176006334026</v>
       </c>
       <c r="D7">
-        <v>0.4679468157091833</v>
+        <v>0.6353812505923884</v>
       </c>
       <c r="E7">
-        <v>0.2070484851820282</v>
+        <v>0.2579764075838327</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3789172578916933</v>
+        <v>0.720566637080978</v>
       </c>
       <c r="H7">
-        <v>0.3329530918141401</v>
+        <v>0.8275819649844323</v>
       </c>
       <c r="I7">
-        <v>0.2769969422468463</v>
+        <v>0.636981689833398</v>
       </c>
       <c r="J7">
-        <v>0.1212482220427304</v>
+        <v>0.1332752079887953</v>
       </c>
       <c r="K7">
-        <v>0.8421231504014202</v>
+        <v>0.332578164377594</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7830263886985467</v>
+        <v>1.515459094975663</v>
       </c>
       <c r="O7">
-        <v>1.447800818808673</v>
+        <v>3.099763278174294</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.908659266732144</v>
+        <v>0.3587910627427107</v>
       </c>
       <c r="C8">
-        <v>0.1620777766239883</v>
+        <v>0.05355432149008266</v>
       </c>
       <c r="D8">
-        <v>0.5366639562761293</v>
+        <v>0.6485742055535297</v>
       </c>
       <c r="E8">
-        <v>0.2393356240861877</v>
+        <v>0.264454396315486</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3965088695312602</v>
+        <v>0.7175503882761518</v>
       </c>
       <c r="H8">
-        <v>0.333673988808151</v>
+        <v>0.8212013214370586</v>
       </c>
       <c r="I8">
-        <v>0.2734598744769201</v>
+        <v>0.630119481093697</v>
       </c>
       <c r="J8">
-        <v>0.1415898252184107</v>
+        <v>0.137573059838914</v>
       </c>
       <c r="K8">
-        <v>1.019235994821798</v>
+        <v>0.3849523824891037</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7379912693634374</v>
+        <v>1.495783181383937</v>
       </c>
       <c r="O8">
-        <v>1.487082253414911</v>
+        <v>3.0803652111383</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.21990292991822</v>
+        <v>0.450484579154363</v>
       </c>
       <c r="C9">
-        <v>0.2168804229537642</v>
+        <v>0.06978432140076052</v>
       </c>
       <c r="D9">
-        <v>0.676631515115389</v>
+        <v>0.6770296115565202</v>
       </c>
       <c r="E9">
-        <v>0.305050594308895</v>
+        <v>0.278261317091534</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.438218511281562</v>
+        <v>0.71499038805716</v>
       </c>
       <c r="H9">
-        <v>0.3394828523520772</v>
+        <v>0.8112654664741399</v>
       </c>
       <c r="I9">
-        <v>0.2711828386885955</v>
+        <v>0.6190865270100652</v>
       </c>
       <c r="J9">
-        <v>0.1829558864891325</v>
+        <v>0.1466103070310893</v>
       </c>
       <c r="K9">
-        <v>1.367919547146641</v>
+        <v>0.4878678449472886</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6573303285750285</v>
+        <v>1.461034471380422</v>
       </c>
       <c r="O9">
-        <v>1.588529101666097</v>
+        <v>3.054756504771802</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.450008139344988</v>
+        <v>0.5180164096261421</v>
       </c>
       <c r="C10">
-        <v>0.2574414815128421</v>
+        <v>0.08168694661624443</v>
       </c>
       <c r="D10">
-        <v>0.7833771512464978</v>
+        <v>0.6995065615402893</v>
       </c>
       <c r="E10">
-        <v>0.3551548317267859</v>
+        <v>0.289077331737893</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4739963592538032</v>
+        <v>0.7151582708398792</v>
       </c>
       <c r="H10">
-        <v>0.3467546728850976</v>
+        <v>0.805532564705743</v>
       </c>
       <c r="I10">
-        <v>0.2727118001605753</v>
+        <v>0.6124582193425141</v>
       </c>
       <c r="J10">
-        <v>0.214487755299217</v>
+        <v>0.1536220140453253</v>
       </c>
       <c r="K10">
-        <v>1.625747265347172</v>
+        <v>0.5635855620276402</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6030996040873884</v>
+        <v>1.437840124569208</v>
       </c>
       <c r="O10">
-        <v>1.680189607233274</v>
+        <v>3.043519913930254</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.555166582010031</v>
+        <v>0.548769878548967</v>
       </c>
       <c r="C11">
-        <v>0.2759954185257527</v>
+        <v>0.0870966722000901</v>
       </c>
       <c r="D11">
-        <v>0.8329619557991634</v>
+        <v>0.7100722016656675</v>
       </c>
       <c r="E11">
-        <v>0.3784301648049322</v>
+        <v>0.2941436830106454</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4915617516377893</v>
+        <v>0.7156803325401171</v>
       </c>
       <c r="H11">
-        <v>0.3507920283590664</v>
+        <v>0.8032640085847902</v>
       </c>
       <c r="I11">
-        <v>0.2741879159528899</v>
+        <v>0.6097636996144367</v>
       </c>
       <c r="J11">
-        <v>0.2291372248954673</v>
+        <v>0.1568928019712814</v>
       </c>
       <c r="K11">
-        <v>1.743594137192844</v>
+        <v>0.5980502058388595</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.5796072823648615</v>
+        <v>1.427794969719839</v>
       </c>
       <c r="O11">
-        <v>1.726138379728553</v>
+        <v>3.040053862600587</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.595071128891192</v>
+        <v>0.5604196376613402</v>
       </c>
       <c r="C12">
-        <v>0.2830393195648924</v>
+        <v>0.08914443758413881</v>
       </c>
       <c r="D12">
-        <v>0.8519012791546459</v>
+        <v>0.7141220026713881</v>
       </c>
       <c r="E12">
-        <v>0.3873209072188359</v>
+        <v>0.2960831483497941</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4984143160439487</v>
+        <v>0.7159421613484511</v>
       </c>
       <c r="H12">
-        <v>0.3524326209664395</v>
+        <v>0.8024537024080018</v>
       </c>
       <c r="I12">
-        <v>0.2748667395319195</v>
+        <v>0.6087894791051589</v>
       </c>
       <c r="J12">
-        <v>0.2347335947687412</v>
+        <v>0.1581430259780063</v>
       </c>
       <c r="K12">
-        <v>1.788317244952225</v>
+        <v>0.6111034549625742</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.570888495497778</v>
+        <v>1.424063890614242</v>
       </c>
       <c r="O12">
-        <v>1.744196726229205</v>
+        <v>3.038977958605642</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.586473031653384</v>
+        <v>0.5579104820284613</v>
       </c>
       <c r="C13">
-        <v>0.2815214386380376</v>
+        <v>0.08870345071881047</v>
       </c>
       <c r="D13">
-        <v>0.8478148714799829</v>
+        <v>0.713247637032822</v>
       </c>
       <c r="E13">
-        <v>0.3854025829554431</v>
+        <v>0.2956645190736893</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4969293000276451</v>
+        <v>0.7158829186719089</v>
       </c>
       <c r="H13">
-        <v>0.3520742065153115</v>
+        <v>0.8026260491727868</v>
       </c>
       <c r="I13">
-        <v>0.2747150859424643</v>
+        <v>0.6089972427893393</v>
       </c>
       <c r="J13">
-        <v>0.2335260564649815</v>
+        <v>0.1578732501349975</v>
       </c>
       <c r="K13">
-        <v>1.778680730010024</v>
+        <v>0.6082921155554004</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.5727582276283272</v>
+        <v>1.424864206804454</v>
       </c>
       <c r="O13">
-        <v>1.740277464879313</v>
+        <v>3.039199150466175</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.558447799551459</v>
+        <v>0.5497282330003657</v>
       </c>
       <c r="C14">
-        <v>0.2765745460469873</v>
+        <v>0.087265159213473</v>
       </c>
       <c r="D14">
-        <v>0.8345167554398927</v>
+        <v>0.7104044037855601</v>
       </c>
       <c r="E14">
-        <v>0.3791600260989156</v>
+        <v>0.2943028245049888</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4921213970598473</v>
+        <v>0.7157005877267011</v>
       </c>
       <c r="H14">
-        <v>0.35092472068456</v>
+        <v>0.8031963675583995</v>
       </c>
       <c r="I14">
-        <v>0.2742413158693928</v>
+        <v>0.6096826251941572</v>
       </c>
       <c r="J14">
-        <v>0.2295966309482225</v>
+        <v>0.1569954253246095</v>
       </c>
       <c r="K14">
-        <v>1.747271489797782</v>
+        <v>0.5991240635675297</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.5788863830725539</v>
+        <v>1.427486552329592</v>
       </c>
       <c r="O14">
-        <v>1.7276105713253</v>
+        <v>3.039960605288911</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.541292818747991</v>
+        <v>0.5447168824831294</v>
       </c>
       <c r="C15">
-        <v>0.2735468651172255</v>
+        <v>0.08638406000886789</v>
       </c>
       <c r="D15">
-        <v>0.826392922349072</v>
+        <v>0.70866919411867</v>
       </c>
       <c r="E15">
-        <v>0.3753465223592656</v>
+        <v>0.2934714735378705</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.489203061153674</v>
+        <v>0.715597258419308</v>
       </c>
       <c r="H15">
-        <v>0.3502353897306136</v>
+        <v>0.8035520507087597</v>
       </c>
       <c r="I15">
-        <v>0.2739669602303252</v>
+        <v>0.6101084503734526</v>
       </c>
       <c r="J15">
-        <v>0.227196271689948</v>
+        <v>0.156459248590906</v>
       </c>
       <c r="K15">
-        <v>1.728045575200952</v>
+        <v>0.5935086381057033</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.5826633815928748</v>
+        <v>1.429102296744482</v>
       </c>
       <c r="O15">
-        <v>1.719938947746925</v>
+        <v>3.040457832210819</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.443146665518299</v>
+        <v>0.5160072051700126</v>
       </c>
       <c r="C16">
-        <v>0.2562312676008531</v>
+        <v>0.08133330374269576</v>
       </c>
       <c r="D16">
-        <v>0.7801585779205311</v>
+        <v>0.698822913857839</v>
       </c>
       <c r="E16">
-        <v>0.353644073431532</v>
+        <v>0.288749168411826</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4728756723645944</v>
+        <v>0.7151331252274957</v>
       </c>
       <c r="H16">
-        <v>0.3465060741943944</v>
+        <v>0.8056876445294421</v>
       </c>
       <c r="I16">
-        <v>0.2726316786921288</v>
+        <v>0.6126407677411265</v>
       </c>
       <c r="J16">
-        <v>0.2135369448400297</v>
+        <v>0.1534098912851931</v>
       </c>
       <c r="K16">
-        <v>1.618058347008258</v>
+        <v>0.5613335664415331</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6046592427461519</v>
+        <v>1.438506785054376</v>
       </c>
       <c r="O16">
-        <v>1.677276263374779</v>
+        <v>3.043779539890892</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.383070356092873</v>
+        <v>0.4984027170449963</v>
       </c>
       <c r="C17">
-        <v>0.2456371541171052</v>
+        <v>0.07823352900894065</v>
       </c>
       <c r="D17">
-        <v>0.7520684585168453</v>
+        <v>0.692869690364887</v>
       </c>
       <c r="E17">
-        <v>0.3404591014926197</v>
+        <v>0.2858895624444528</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.463200387068099</v>
+        <v>0.7149625792709031</v>
       </c>
       <c r="H17">
-        <v>0.3444098001140361</v>
+        <v>0.8070846442131625</v>
       </c>
       <c r="I17">
-        <v>0.2720177100475922</v>
+        <v>0.6142764198583208</v>
       </c>
       <c r="J17">
-        <v>0.2052390805254873</v>
+        <v>0.1515599750003958</v>
       </c>
       <c r="K17">
-        <v>1.55073951644971</v>
+        <v>0.5415999118916943</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6184600583601405</v>
+        <v>1.444405771726803</v>
       </c>
       <c r="O17">
-        <v>1.65222566007742</v>
+        <v>3.046238752101658</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.348560566635314</v>
+        <v>0.4882802163014617</v>
       </c>
       <c r="C18">
-        <v>0.2395531435655727</v>
+        <v>0.07645017021776823</v>
       </c>
       <c r="D18">
-        <v>0.7360073405048411</v>
+        <v>0.6894776386308763</v>
       </c>
       <c r="E18">
-        <v>0.3329204078730612</v>
+        <v>0.2842585471982915</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.4577558433973081</v>
+        <v>0.7149064335975481</v>
       </c>
       <c r="H18">
-        <v>0.3432722936073844</v>
+        <v>0.8079201077655682</v>
       </c>
       <c r="I18">
-        <v>0.2717375603011831</v>
+        <v>0.6152473914824945</v>
       </c>
       <c r="J18">
-        <v>0.2004948000498388</v>
+        <v>0.1505035892847673</v>
       </c>
       <c r="K18">
-        <v>1.51207112985557</v>
+        <v>0.5302515846625226</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6265082517226137</v>
+        <v>1.447846344512625</v>
       </c>
       <c r="O18">
-        <v>1.638214427345588</v>
+        <v>3.047808111660174</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.336883381409308</v>
+        <v>0.4848534695498472</v>
       </c>
       <c r="C19">
-        <v>0.2374947309487254</v>
+        <v>0.07584628080194022</v>
       </c>
       <c r="D19">
-        <v>0.7305852924250189</v>
+        <v>0.6883346642577237</v>
       </c>
       <c r="E19">
-        <v>0.3303754372201695</v>
+        <v>0.2837086776178168</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4559326433488451</v>
+        <v>0.7148946268261085</v>
       </c>
       <c r="H19">
-        <v>0.3428986680890063</v>
+        <v>0.8082084698326923</v>
       </c>
       <c r="I19">
-        <v>0.2716550185481807</v>
+        <v>0.6155813301194009</v>
       </c>
       <c r="J19">
-        <v>0.1988932044512808</v>
+        <v>0.1501472274840694</v>
       </c>
       <c r="K19">
-        <v>1.498987060041344</v>
+        <v>0.526409591470383</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6292519476144758</v>
+        <v>1.449019443234334</v>
       </c>
       <c r="O19">
-        <v>1.633537301278665</v>
+        <v>3.048366071948436</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.389460876789428</v>
+        <v>0.5002764250364464</v>
       </c>
       <c r="C20">
-        <v>0.2467639159400932</v>
+        <v>0.07856355254331504</v>
       </c>
       <c r="D20">
-        <v>0.7550487015481053</v>
+        <v>0.6935001017899936</v>
       </c>
       <c r="E20">
-        <v>0.3418579592596274</v>
+        <v>0.286192549277267</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4642177655764499</v>
+        <v>0.7149763924017662</v>
       </c>
       <c r="H20">
-        <v>0.3446258439165319</v>
+        <v>0.8069326252834514</v>
       </c>
       <c r="I20">
-        <v>0.2720754604772182</v>
+        <v>0.6140991774667093</v>
       </c>
       <c r="J20">
-        <v>0.206119424625598</v>
+        <v>0.1517561114580275</v>
       </c>
       <c r="K20">
-        <v>1.557900261848687</v>
+        <v>0.5437003963169218</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6169794635375805</v>
+        <v>1.443772884609221</v>
       </c>
       <c r="O20">
-        <v>1.654850898334701</v>
+        <v>3.045960934745182</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.566677111831041</v>
+        <v>0.5521314520640317</v>
       </c>
       <c r="C21">
-        <v>0.2780270551030526</v>
+        <v>0.08768764214408975</v>
       </c>
       <c r="D21">
-        <v>0.8384181947546665</v>
+        <v>0.7112382067153931</v>
       </c>
       <c r="E21">
-        <v>0.3809914677440815</v>
+        <v>0.2947022191620334</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4935280131767854</v>
+        <v>0.7157524017685972</v>
       </c>
       <c r="H21">
-        <v>0.3512592631971501</v>
+        <v>0.8030275286795074</v>
       </c>
       <c r="I21">
-        <v>0.274377157847443</v>
+        <v>0.6094800595405481</v>
       </c>
       <c r="J21">
-        <v>0.2307494287368286</v>
+        <v>0.1572529477857074</v>
       </c>
       <c r="K21">
-        <v>1.756494372853666</v>
+        <v>0.6018168873872014</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.5770815192215011</v>
+        <v>1.426714329770549</v>
       </c>
       <c r="O21">
-        <v>1.731312880984973</v>
+        <v>3.03973052598937</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.682991078050861</v>
+        <v>0.5860452385384747</v>
       </c>
       <c r="C22">
-        <v>0.2985654852197115</v>
+        <v>0.09364617476899184</v>
       </c>
       <c r="D22">
-        <v>0.8938607269783176</v>
+        <v>0.7231155743461386</v>
       </c>
       <c r="E22">
-        <v>0.4070194384885966</v>
+        <v>0.3003858536407265</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.5138630706660194</v>
+        <v>0.7166334195592299</v>
       </c>
       <c r="H22">
-        <v>0.3562493769043016</v>
+        <v>0.800759431080138</v>
       </c>
       <c r="I22">
-        <v>0.2765839237174248</v>
+        <v>0.606730119723526</v>
       </c>
       <c r="J22">
-        <v>0.2471343695678883</v>
+        <v>0.1609133304536243</v>
       </c>
       <c r="K22">
-        <v>1.886861402718864</v>
+        <v>0.6398120946615506</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5520430763681148</v>
+        <v>1.415989945970985</v>
       </c>
       <c r="O22">
-        <v>1.785147904131549</v>
+        <v>3.037037758426493</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.620862144381135</v>
+        <v>0.5679428721049931</v>
       </c>
       <c r="C23">
-        <v>0.2875929046599595</v>
+        <v>0.09046644145433902</v>
       </c>
       <c r="D23">
-        <v>0.8641772729488082</v>
+        <v>0.7167504281218271</v>
       </c>
       <c r="E23">
-        <v>0.3930838586507761</v>
+        <v>0.2973412411144949</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.5028965979453801</v>
+        <v>0.7161289814915079</v>
       </c>
       <c r="H23">
-        <v>0.3535237587395272</v>
+        <v>0.8019439792658858</v>
       </c>
       <c r="I23">
-        <v>0.2753392110195279</v>
+        <v>0.6081732031295282</v>
       </c>
       <c r="J23">
-        <v>0.238361334238121</v>
+        <v>0.1589535102611705</v>
       </c>
       <c r="K23">
-        <v>1.817223718871475</v>
+        <v>0.6195323979098646</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.5653089117443901</v>
+        <v>1.421674910890708</v>
       </c>
       <c r="O23">
-        <v>1.75604529028368</v>
+        <v>3.038348749130591</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.386571633467099</v>
+        <v>0.4994293261090945</v>
       </c>
       <c r="C24">
-        <v>0.2462544863312388</v>
+        <v>0.07841435281328302</v>
       </c>
       <c r="D24">
-        <v>0.7537010598778693</v>
+        <v>0.6932149976571793</v>
       </c>
       <c r="E24">
-        <v>0.3412254068890093</v>
+        <v>0.2860555284009081</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4637574426557336</v>
+        <v>0.7149700169619422</v>
       </c>
       <c r="H24">
-        <v>0.3445279602509999</v>
+        <v>0.8070012523935333</v>
       </c>
       <c r="I24">
-        <v>0.2720491252311028</v>
+        <v>0.6141792133936868</v>
       </c>
       <c r="J24">
-        <v>0.2057213396002311</v>
+        <v>0.1516674158755364</v>
       </c>
       <c r="K24">
-        <v>1.554662783859129</v>
+        <v>0.5427507771824764</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6176484862128291</v>
+        <v>1.444058859724025</v>
       </c>
       <c r="O24">
-        <v>1.653662814723447</v>
+        <v>3.046086051515829</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.135504272363931</v>
+        <v>0.4256485661184115</v>
       </c>
       <c r="C25">
-        <v>0.2020143634537988</v>
+        <v>0.06539730009923517</v>
       </c>
       <c r="D25">
-        <v>0.6381354749200625</v>
+        <v>0.6690554964424962</v>
       </c>
       <c r="E25">
-        <v>0.2869801739807301</v>
+        <v>0.274408103330714</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4260894275880531</v>
+        <v>0.7153234121859384</v>
       </c>
       <c r="H25">
-        <v>0.3374085599777601</v>
+        <v>0.8136779312411733</v>
       </c>
       <c r="I25">
-        <v>0.2712640078220865</v>
+        <v>0.6218117499696305</v>
       </c>
       <c r="J25">
-        <v>0.1715833464015759</v>
+        <v>0.1441002053231628</v>
       </c>
       <c r="K25">
-        <v>1.27336408144825</v>
+        <v>0.4600063177901177</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6782955905916843</v>
+        <v>1.470024581876679</v>
       </c>
       <c r="O25">
-        <v>1.558247842463373</v>
+        <v>3.060353537645767</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_175/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_175/res_line/pl_mw.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.3714395591177038</v>
+        <v>0.951553780117564</v>
       </c>
       <c r="C2">
-        <v>0.05579912950918242</v>
+        <v>0.169627846646307</v>
       </c>
       <c r="D2">
-        <v>0.6523238794029282</v>
+        <v>0.5556100221693328</v>
       </c>
       <c r="E2">
-        <v>0.2662843189305661</v>
+        <v>0.2482336410256565</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.7169600431790144</v>
+        <v>0.4017376137117097</v>
       </c>
       <c r="H2">
-        <v>0.8196469962007171</v>
+        <v>0.3341553983922694</v>
       </c>
       <c r="I2">
-        <v>0.6284241979578198</v>
+        <v>0.2728041281414484</v>
       </c>
       <c r="J2">
-        <v>0.1387787624293466</v>
+        <v>0.1471928935877926</v>
       </c>
       <c r="K2">
-        <v>0.3991581964930049</v>
+        <v>1.067288679129859</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.490711683824989</v>
+        <v>0.7262941172013786</v>
       </c>
       <c r="O2">
-        <v>3.075950561197459</v>
+        <v>1.499299367086678</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.3347798175139474</v>
+        <v>0.8272240420708101</v>
       </c>
       <c r="C3">
-        <v>0.04928632770985075</v>
+        <v>0.1477448701358242</v>
       </c>
       <c r="D3">
-        <v>0.6416451284709694</v>
+        <v>0.5010385168125424</v>
       </c>
       <c r="E3">
-        <v>0.2610608681683928</v>
+        <v>0.2226000498767817</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.7189266023718304</v>
+        <v>0.3871010469245277</v>
       </c>
       <c r="H3">
-        <v>0.8243504706904758</v>
+        <v>0.3330841917652734</v>
       </c>
       <c r="I3">
-        <v>0.6335247926551446</v>
+        <v>0.275049984873398</v>
       </c>
       <c r="J3">
-        <v>0.1353281451824415</v>
+        <v>0.1310484574743143</v>
       </c>
       <c r="K3">
-        <v>0.35797459018994</v>
+        <v>0.9280072639533614</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.505711265271</v>
+        <v>0.7607896059719153</v>
       </c>
       <c r="O3">
-        <v>3.089697132661342</v>
+        <v>1.465660860578055</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.3123118185157239</v>
+        <v>0.7509809080174534</v>
       </c>
       <c r="C4">
-        <v>0.04528376544608648</v>
+        <v>0.1343257218872083</v>
       </c>
       <c r="D4">
-        <v>0.6354147157113914</v>
+        <v>0.4681263656165982</v>
       </c>
       <c r="E4">
-        <v>0.2579929372904743</v>
+        <v>0.2071328851444392</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.7205566758285613</v>
+        <v>0.3789600771343586</v>
       </c>
       <c r="H4">
-        <v>0.8275635345104391</v>
+        <v>0.3329526041729522</v>
       </c>
       <c r="I4">
-        <v>0.636962074204888</v>
+        <v>0.2769850304737034</v>
       </c>
       <c r="J4">
-        <v>0.1332862474594307</v>
+        <v>0.1213014238088448</v>
       </c>
       <c r="K4">
-        <v>0.332716901195738</v>
+        <v>0.8425924136327865</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.51540467414606</v>
+        <v>0.7829026900767175</v>
       </c>
       <c r="O4">
-        <v>3.099704559935248</v>
+        <v>1.447891887311471</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.3031668799846727</v>
+        <v>0.7199261094822589</v>
       </c>
       <c r="C5">
-        <v>0.04365183978664788</v>
+        <v>0.1288595637455359</v>
       </c>
       <c r="D5">
-        <v>0.6329580189775186</v>
+        <v>0.4548537827279517</v>
       </c>
       <c r="E5">
-        <v>0.2567778139994559</v>
+        <v>0.2008932518336124</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.7213271885480381</v>
+        <v>0.3758447766194024</v>
       </c>
       <c r="H5">
-        <v>0.8289547102847337</v>
+        <v>0.3330266496123144</v>
       </c>
       <c r="I5">
-        <v>0.6384396201625826</v>
+        <v>0.2779081945825226</v>
       </c>
       <c r="J5">
-        <v>0.1324734857647272</v>
+        <v>0.1173677488788769</v>
       </c>
       <c r="K5">
-        <v>0.3224321486333395</v>
+        <v>0.8078005897193066</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.519476445031003</v>
+        <v>0.7921431125228988</v>
       </c>
       <c r="O5">
-        <v>3.104176800790768</v>
+        <v>1.441344401535261</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.3016490487148076</v>
+        <v>0.7147701244820723</v>
       </c>
       <c r="C6">
-        <v>0.04338081071000488</v>
+        <v>0.1279519910170279</v>
       </c>
       <c r="D6">
-        <v>0.6325550590378555</v>
+        <v>0.4526580094487542</v>
       </c>
       <c r="E6">
-        <v>0.2565781643691167</v>
+        <v>0.1998608500949004</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.7214615478962116</v>
+        <v>0.3753393983114748</v>
       </c>
       <c r="H6">
-        <v>0.8291906582527275</v>
+        <v>0.3330465243011318</v>
       </c>
       <c r="I6">
-        <v>0.6386896058291107</v>
+        <v>0.2780694677762767</v>
       </c>
       <c r="J6">
-        <v>0.1323396951960092</v>
+        <v>0.1167167848070605</v>
       </c>
       <c r="K6">
-        <v>0.3207248722315228</v>
+        <v>0.8020240595130872</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.520159906197057</v>
+        <v>0.7936911659003094</v>
       </c>
       <c r="O6">
-        <v>3.104943220736715</v>
+        <v>1.440298175735364</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.3121884415497789</v>
+        <v>0.7505620436161564</v>
       </c>
       <c r="C7">
-        <v>0.04526176006334026</v>
+        <v>0.1342519968563209</v>
       </c>
       <c r="D7">
-        <v>0.6353812505923884</v>
+        <v>0.467946815709297</v>
       </c>
       <c r="E7">
-        <v>0.2579764075838327</v>
+        <v>0.207048485182014</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.720566637080978</v>
+        <v>0.3789172578918141</v>
       </c>
       <c r="H7">
-        <v>0.8275819649844323</v>
+        <v>0.3329530918140193</v>
       </c>
       <c r="I7">
-        <v>0.636981689833398</v>
+        <v>0.2769969422468463</v>
       </c>
       <c r="J7">
-        <v>0.1332752079887953</v>
+        <v>0.121248222042766</v>
       </c>
       <c r="K7">
-        <v>0.332578164377594</v>
+        <v>0.842123150401477</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.515459094975663</v>
+        <v>0.7830263886986124</v>
       </c>
       <c r="O7">
-        <v>3.099763278174294</v>
+        <v>1.447800818808744</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.3587910627427107</v>
+        <v>0.9086592667321156</v>
       </c>
       <c r="C8">
-        <v>0.05355432149008266</v>
+        <v>0.1620777766243009</v>
       </c>
       <c r="D8">
-        <v>0.6485742055535297</v>
+        <v>0.5366639562758451</v>
       </c>
       <c r="E8">
-        <v>0.264454396315486</v>
+        <v>0.2393356240861877</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.7175503882761518</v>
+        <v>0.3965088695312602</v>
       </c>
       <c r="H8">
-        <v>0.8212013214370586</v>
+        <v>0.333673988808151</v>
       </c>
       <c r="I8">
-        <v>0.630119481093697</v>
+        <v>0.2734598744769166</v>
       </c>
       <c r="J8">
-        <v>0.137573059838914</v>
+        <v>0.1415898252184036</v>
       </c>
       <c r="K8">
-        <v>0.3849523824891037</v>
+        <v>1.019235994821855</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.495783181383937</v>
+        <v>0.7379912693634818</v>
       </c>
       <c r="O8">
-        <v>3.0803652111383</v>
+        <v>1.48708225341494</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.450484579154363</v>
+        <v>1.219902929918334</v>
       </c>
       <c r="C9">
-        <v>0.06978432140076052</v>
+        <v>0.2168804229539631</v>
       </c>
       <c r="D9">
-        <v>0.6770296115565202</v>
+        <v>0.6766315151154458</v>
       </c>
       <c r="E9">
-        <v>0.278261317091534</v>
+        <v>0.305050594308895</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.71499038805716</v>
+        <v>0.438218511281562</v>
       </c>
       <c r="H9">
-        <v>0.8112654664741399</v>
+        <v>0.3394828523520772</v>
       </c>
       <c r="I9">
-        <v>0.6190865270100652</v>
+        <v>0.2711828386886026</v>
       </c>
       <c r="J9">
-        <v>0.1466103070310893</v>
+        <v>0.1829558864891041</v>
       </c>
       <c r="K9">
-        <v>0.4878678449472886</v>
+        <v>1.367919547146812</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.461034471380422</v>
+        <v>0.6573303285750391</v>
       </c>
       <c r="O9">
-        <v>3.054756504771802</v>
+        <v>1.588529101666154</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5180164096261421</v>
+        <v>1.450008139344902</v>
       </c>
       <c r="C10">
-        <v>0.08168694661624443</v>
+        <v>0.2574414815130268</v>
       </c>
       <c r="D10">
-        <v>0.6995065615402893</v>
+        <v>0.7833771512464978</v>
       </c>
       <c r="E10">
-        <v>0.289077331737893</v>
+        <v>0.3551548317267645</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.7151582708398792</v>
+        <v>0.473996359253789</v>
       </c>
       <c r="H10">
-        <v>0.805532564705743</v>
+        <v>0.3467546728850976</v>
       </c>
       <c r="I10">
-        <v>0.6124582193425141</v>
+        <v>0.2727118001605611</v>
       </c>
       <c r="J10">
-        <v>0.1536220140453253</v>
+        <v>0.214487755299217</v>
       </c>
       <c r="K10">
-        <v>0.5635855620276402</v>
+        <v>1.625747265347229</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.437840124569208</v>
+        <v>0.6030996040873902</v>
       </c>
       <c r="O10">
-        <v>3.043519913930254</v>
+        <v>1.680189607233274</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.548769878548967</v>
+        <v>1.555166582010003</v>
       </c>
       <c r="C11">
-        <v>0.0870966722000901</v>
+        <v>0.2759954185261222</v>
       </c>
       <c r="D11">
-        <v>0.7100722016656675</v>
+        <v>0.8329619557990782</v>
       </c>
       <c r="E11">
-        <v>0.2941436830106454</v>
+        <v>0.378430164804918</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.7156803325401171</v>
+        <v>0.4915617516377893</v>
       </c>
       <c r="H11">
-        <v>0.8032640085847902</v>
+        <v>0.3507920283590664</v>
       </c>
       <c r="I11">
-        <v>0.6097636996144367</v>
+        <v>0.2741879159528722</v>
       </c>
       <c r="J11">
-        <v>0.1568928019712814</v>
+        <v>0.2291372248954104</v>
       </c>
       <c r="K11">
-        <v>0.5980502058388595</v>
+        <v>1.743594137193014</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.427794969719839</v>
+        <v>0.5796072823648615</v>
       </c>
       <c r="O11">
-        <v>3.040053862600587</v>
+        <v>1.72613837972861</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.5604196376613402</v>
+        <v>1.595071128891277</v>
       </c>
       <c r="C12">
-        <v>0.08914443758413881</v>
+        <v>0.2830393195651197</v>
       </c>
       <c r="D12">
-        <v>0.7141220026713881</v>
+        <v>0.8519012791547027</v>
       </c>
       <c r="E12">
-        <v>0.2960831483497941</v>
+        <v>0.3873209072188288</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7159421613484511</v>
+        <v>0.4984143160439913</v>
       </c>
       <c r="H12">
-        <v>0.8024537024080018</v>
+        <v>0.3524326209663116</v>
       </c>
       <c r="I12">
-        <v>0.6087894791051589</v>
+        <v>0.2748667395319302</v>
       </c>
       <c r="J12">
-        <v>0.1581430259780063</v>
+        <v>0.2347335947685849</v>
       </c>
       <c r="K12">
-        <v>0.6111034549625742</v>
+        <v>1.788317244952111</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.424063890614242</v>
+        <v>0.5708884954977727</v>
       </c>
       <c r="O12">
-        <v>3.038977958605642</v>
+        <v>1.744196726229205</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.5579104820284613</v>
+        <v>1.586473031653384</v>
       </c>
       <c r="C13">
-        <v>0.08870345071881047</v>
+        <v>0.2815214386385776</v>
       </c>
       <c r="D13">
-        <v>0.713247637032822</v>
+        <v>0.8478148714801534</v>
       </c>
       <c r="E13">
-        <v>0.2956645190736893</v>
+        <v>0.3854025829554359</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7158829186719089</v>
+        <v>0.4969293000276735</v>
       </c>
       <c r="H13">
-        <v>0.8026260491727868</v>
+        <v>0.3520742065153257</v>
       </c>
       <c r="I13">
-        <v>0.6089972427893393</v>
+        <v>0.2747150859424643</v>
       </c>
       <c r="J13">
-        <v>0.1578732501349975</v>
+        <v>0.2335260564649104</v>
       </c>
       <c r="K13">
-        <v>0.6082921155554004</v>
+        <v>1.778680730010024</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.424864206804454</v>
+        <v>0.5727582276282579</v>
       </c>
       <c r="O13">
-        <v>3.039199150466175</v>
+        <v>1.740277464879284</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.5497282330003657</v>
+        <v>1.558447799551459</v>
       </c>
       <c r="C14">
-        <v>0.087265159213473</v>
+        <v>0.2765745460470157</v>
       </c>
       <c r="D14">
-        <v>0.7104044037855601</v>
+        <v>0.834516755439779</v>
       </c>
       <c r="E14">
-        <v>0.2943028245049888</v>
+        <v>0.3791600260989298</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.7157005877267011</v>
+        <v>0.4921213970599183</v>
       </c>
       <c r="H14">
-        <v>0.8031963675583995</v>
+        <v>0.3509247206846737</v>
       </c>
       <c r="I14">
-        <v>0.6096826251941572</v>
+        <v>0.2742413158693893</v>
       </c>
       <c r="J14">
-        <v>0.1569954253246095</v>
+        <v>0.2295966309482935</v>
       </c>
       <c r="K14">
-        <v>0.5991240635675297</v>
+        <v>1.747271489797782</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.427486552329592</v>
+        <v>0.5788863830725344</v>
       </c>
       <c r="O14">
-        <v>3.039960605288911</v>
+        <v>1.727610571325272</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.5447168824831294</v>
+        <v>1.541292818747962</v>
       </c>
       <c r="C15">
-        <v>0.08638406000886789</v>
+        <v>0.2735468651170265</v>
       </c>
       <c r="D15">
-        <v>0.70866919411867</v>
+        <v>0.8263929223490436</v>
       </c>
       <c r="E15">
-        <v>0.2934714735378705</v>
+        <v>0.3753465223592514</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.715597258419308</v>
+        <v>0.4892030611536882</v>
       </c>
       <c r="H15">
-        <v>0.8035520507087597</v>
+        <v>0.3502353897304999</v>
       </c>
       <c r="I15">
-        <v>0.6101084503734526</v>
+        <v>0.2739669602303252</v>
       </c>
       <c r="J15">
-        <v>0.156459248590906</v>
+        <v>0.2271962716899765</v>
       </c>
       <c r="K15">
-        <v>0.5935086381057033</v>
+        <v>1.728045575200923</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.429102296744482</v>
+        <v>0.5826633815928766</v>
       </c>
       <c r="O15">
-        <v>3.040457832210819</v>
+        <v>1.719938947746954</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5160072051700126</v>
+        <v>1.443146665518299</v>
       </c>
       <c r="C16">
-        <v>0.08133330374269576</v>
+        <v>0.2562312676008389</v>
       </c>
       <c r="D16">
-        <v>0.698822913857839</v>
+        <v>0.7801585779206448</v>
       </c>
       <c r="E16">
-        <v>0.288749168411826</v>
+        <v>0.3536440734315107</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.7151331252274957</v>
+        <v>0.4728756723646228</v>
       </c>
       <c r="H16">
-        <v>0.8056876445294421</v>
+        <v>0.3465060741944939</v>
       </c>
       <c r="I16">
-        <v>0.6126407677411265</v>
+        <v>0.2726316786921181</v>
       </c>
       <c r="J16">
-        <v>0.1534098912851931</v>
+        <v>0.2135369448400866</v>
       </c>
       <c r="K16">
-        <v>0.5613335664415331</v>
+        <v>1.6180583470084</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.438506785054376</v>
+        <v>0.6046592427461306</v>
       </c>
       <c r="O16">
-        <v>3.043779539890892</v>
+        <v>1.677276263374893</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.4984027170449963</v>
+        <v>1.383070356092986</v>
       </c>
       <c r="C17">
-        <v>0.07823352900894065</v>
+        <v>0.2456371541171052</v>
       </c>
       <c r="D17">
-        <v>0.692869690364887</v>
+        <v>0.7520684585168169</v>
       </c>
       <c r="E17">
-        <v>0.2858895624444528</v>
+        <v>0.340459101492641</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.7149625792709031</v>
+        <v>0.4632003870680137</v>
       </c>
       <c r="H17">
-        <v>0.8070846442131625</v>
+        <v>0.3444098001140219</v>
       </c>
       <c r="I17">
-        <v>0.6142764198583208</v>
+        <v>0.2720177100476029</v>
       </c>
       <c r="J17">
-        <v>0.1515599750003958</v>
+        <v>0.2052390805255726</v>
       </c>
       <c r="K17">
-        <v>0.5415999118916943</v>
+        <v>1.550739516449624</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.444405771726803</v>
+        <v>0.6184600583601938</v>
       </c>
       <c r="O17">
-        <v>3.046238752101658</v>
+        <v>1.652225660077335</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.4882802163014617</v>
+        <v>1.348560566635541</v>
       </c>
       <c r="C18">
-        <v>0.07645017021776823</v>
+        <v>0.2395531435657858</v>
       </c>
       <c r="D18">
-        <v>0.6894776386308763</v>
+        <v>0.7360073405048979</v>
       </c>
       <c r="E18">
-        <v>0.2842585471982915</v>
+        <v>0.332920407873047</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.7149064335975481</v>
+        <v>0.457755843397365</v>
       </c>
       <c r="H18">
-        <v>0.8079201077655682</v>
+        <v>0.3432722936073844</v>
       </c>
       <c r="I18">
-        <v>0.6152473914824945</v>
+        <v>0.2717375603011867</v>
       </c>
       <c r="J18">
-        <v>0.1505035892847673</v>
+        <v>0.2004948000498104</v>
       </c>
       <c r="K18">
-        <v>0.5302515846625226</v>
+        <v>1.512071129855485</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.447846344512625</v>
+        <v>0.6265082517226173</v>
       </c>
       <c r="O18">
-        <v>3.047808111660174</v>
+        <v>1.638214427345503</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.4848534695498472</v>
+        <v>1.336883381409194</v>
       </c>
       <c r="C19">
-        <v>0.07584628080194022</v>
+        <v>0.2374947309486402</v>
       </c>
       <c r="D19">
-        <v>0.6883346642577237</v>
+        <v>0.7305852924251894</v>
       </c>
       <c r="E19">
-        <v>0.2837086776178168</v>
+        <v>0.3303754372201837</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.7148946268261085</v>
+        <v>0.4559326433487456</v>
       </c>
       <c r="H19">
-        <v>0.8082084698326923</v>
+        <v>0.3428986680889921</v>
       </c>
       <c r="I19">
-        <v>0.6155813301194009</v>
+        <v>0.2716550185482021</v>
       </c>
       <c r="J19">
-        <v>0.1501472274840694</v>
+        <v>0.198893204451295</v>
       </c>
       <c r="K19">
-        <v>0.526409591470383</v>
+        <v>1.498987060041259</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.449019443234334</v>
+        <v>0.6292519476144847</v>
       </c>
       <c r="O19">
-        <v>3.048366071948436</v>
+        <v>1.633537301278608</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5002764250364464</v>
+        <v>1.389460876789315</v>
       </c>
       <c r="C20">
-        <v>0.07856355254331504</v>
+        <v>0.2467639159403063</v>
       </c>
       <c r="D20">
-        <v>0.6935001017899936</v>
+        <v>0.755048701548219</v>
       </c>
       <c r="E20">
-        <v>0.286192549277267</v>
+        <v>0.3418579592596345</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.7149763924017662</v>
+        <v>0.4642177655764641</v>
       </c>
       <c r="H20">
-        <v>0.8069326252834514</v>
+        <v>0.3446258439165319</v>
       </c>
       <c r="I20">
-        <v>0.6140991774667093</v>
+        <v>0.2720754604772146</v>
       </c>
       <c r="J20">
-        <v>0.1517561114580275</v>
+        <v>0.2061194246257685</v>
       </c>
       <c r="K20">
-        <v>0.5437003963169218</v>
+        <v>1.557900261848573</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.443772884609221</v>
+        <v>0.6169794635375823</v>
       </c>
       <c r="O20">
-        <v>3.045960934745182</v>
+        <v>1.654850898334672</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.5521314520640317</v>
+        <v>1.566677111831126</v>
       </c>
       <c r="C21">
-        <v>0.08768764214408975</v>
+        <v>0.2780270551028252</v>
       </c>
       <c r="D21">
-        <v>0.7112382067153931</v>
+        <v>0.8384181947547802</v>
       </c>
       <c r="E21">
-        <v>0.2947022191620334</v>
+        <v>0.3809914677440673</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.7157524017685972</v>
+        <v>0.4935280131767854</v>
       </c>
       <c r="H21">
-        <v>0.8030275286795074</v>
+        <v>0.3512592631971501</v>
       </c>
       <c r="I21">
-        <v>0.6094800595405481</v>
+        <v>0.2743771578474608</v>
       </c>
       <c r="J21">
-        <v>0.1572529477857074</v>
+        <v>0.230749428736857</v>
       </c>
       <c r="K21">
-        <v>0.6018168873872014</v>
+        <v>1.756494372853723</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.426714329770549</v>
+        <v>0.5770815192214371</v>
       </c>
       <c r="O21">
-        <v>3.03973052598937</v>
+        <v>1.731312880985001</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.5860452385384747</v>
+        <v>1.682991078050833</v>
       </c>
       <c r="C22">
-        <v>0.09364617476899184</v>
+        <v>0.2985654852198536</v>
       </c>
       <c r="D22">
-        <v>0.7231155743461386</v>
+        <v>0.8938607269783176</v>
       </c>
       <c r="E22">
-        <v>0.3003858536407265</v>
+        <v>0.4070194384885966</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.7166334195592299</v>
+        <v>0.5138630706660052</v>
       </c>
       <c r="H22">
-        <v>0.800759431080138</v>
+        <v>0.3562493769044153</v>
       </c>
       <c r="I22">
-        <v>0.606730119723526</v>
+        <v>0.2765839237174283</v>
       </c>
       <c r="J22">
-        <v>0.1609133304536243</v>
+        <v>0.2471343695678314</v>
       </c>
       <c r="K22">
-        <v>0.6398120946615506</v>
+        <v>1.886861402718864</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.415989945970985</v>
+        <v>0.5520430763681858</v>
       </c>
       <c r="O22">
-        <v>3.037037758426493</v>
+        <v>1.785147904131549</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.5679428721049931</v>
+        <v>1.620862144381135</v>
       </c>
       <c r="C23">
-        <v>0.09046644145433902</v>
+        <v>0.2875929046598173</v>
       </c>
       <c r="D23">
-        <v>0.7167504281218271</v>
+        <v>0.8641772729489219</v>
       </c>
       <c r="E23">
-        <v>0.2973412411144949</v>
+        <v>0.3930838586507477</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.7161289814915079</v>
+        <v>0.5028965979453801</v>
       </c>
       <c r="H23">
-        <v>0.8019439792658858</v>
+        <v>0.3535237587395414</v>
       </c>
       <c r="I23">
-        <v>0.6081732031295282</v>
+        <v>0.275339211019535</v>
       </c>
       <c r="J23">
-        <v>0.1589535102611705</v>
+        <v>0.2383613342380215</v>
       </c>
       <c r="K23">
-        <v>0.6195323979098646</v>
+        <v>1.817223718871446</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.421674910890708</v>
+        <v>0.5653089117443848</v>
       </c>
       <c r="O23">
-        <v>3.038348749130591</v>
+        <v>1.756045290283595</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.4994293261090945</v>
+        <v>1.386571633467241</v>
       </c>
       <c r="C24">
-        <v>0.07841435281328302</v>
+        <v>0.2462544863311535</v>
       </c>
       <c r="D24">
-        <v>0.6932149976571793</v>
+        <v>0.753701059877983</v>
       </c>
       <c r="E24">
-        <v>0.2860555284009081</v>
+        <v>0.3412254068890164</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.7149700169619422</v>
+        <v>0.4637574426557194</v>
       </c>
       <c r="H24">
-        <v>0.8070012523935333</v>
+        <v>0.3445279602509999</v>
       </c>
       <c r="I24">
-        <v>0.6141792133936868</v>
+        <v>0.2720491252310886</v>
       </c>
       <c r="J24">
-        <v>0.1516674158755364</v>
+        <v>0.2057213396002737</v>
       </c>
       <c r="K24">
-        <v>0.5427507771824764</v>
+        <v>1.554662783859101</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.444058859724025</v>
+        <v>0.6176484862128788</v>
       </c>
       <c r="O24">
-        <v>3.046086051515829</v>
+        <v>1.653662814723447</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.4256485661184115</v>
+        <v>1.135504272363818</v>
       </c>
       <c r="C25">
-        <v>0.06539730009923517</v>
+        <v>0.2020143634539124</v>
       </c>
       <c r="D25">
-        <v>0.6690554964424962</v>
+        <v>0.6381354749200909</v>
       </c>
       <c r="E25">
-        <v>0.274408103330714</v>
+        <v>0.2869801739807016</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.7153234121859384</v>
+        <v>0.42608942758811</v>
       </c>
       <c r="H25">
-        <v>0.8136779312411733</v>
+        <v>0.3374085599777601</v>
       </c>
       <c r="I25">
-        <v>0.6218117499696305</v>
+        <v>0.2712640078220829</v>
       </c>
       <c r="J25">
-        <v>0.1441002053231628</v>
+        <v>0.1715833464017251</v>
       </c>
       <c r="K25">
-        <v>0.4600063177901177</v>
+        <v>1.27336408144825</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.470024581876679</v>
+        <v>0.6782955905916808</v>
       </c>
       <c r="O25">
-        <v>3.060353537645767</v>
+        <v>1.558247842463459</v>
       </c>
     </row>
   </sheetData>
